--- a/data/trans_orig/P19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5208FC91-2E51-483B-92EB-317C2EF82549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B04F62-F6D6-43DD-82F8-4ADE70D88EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{9B589188-9870-4E02-A9A5-14B1A52E9465}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C58A099C-B027-4400-8068-ADACF6FB62ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>18,7%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>34,5%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,3%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>65,5%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,52%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>76,48%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>24,86%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>75,14%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>71,85%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,49 +254,55 @@
     <t>27,43%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>27,7%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>70,02%</t>
   </si>
   <si>
-    <t>72,3%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,16 +311,19 @@
     <t>24,65%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>33,38%</t>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>27,82%</t>
@@ -323,28 +332,31 @@
     <t>25,82%</t>
   </si>
   <si>
-    <t>29,84%</t>
+    <t>29,9%</t>
   </si>
   <si>
     <t>75,35%</t>
   </si>
   <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>70,16%</t>
+    <t>70,1%</t>
   </si>
   <si>
     <t>74,18%</t>
@@ -353,55 +365,49 @@
     <t>24,88%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>26,5%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>73,5%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -413,937 +419,883 @@
     <t>25,32%</t>
   </si>
   <si>
-    <t>17,26%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>70,38%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
+    <t>29,69%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>70,31%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F13A905-BCB7-44C7-97BC-0755690A39FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BBE419-1699-455A-8A74-D6865C356E08}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2380,7 +2332,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2347,13 @@
         <v>492372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -2410,13 +2362,13 @@
         <v>461490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>940</v>
@@ -2425,13 +2377,13 @@
         <v>953862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,7 +2439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2499,13 +2451,13 @@
         <v>232039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>305</v>
@@ -2514,13 +2466,13 @@
         <v>318757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -2529,13 +2481,13 @@
         <v>550796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2502,13 @@
         <v>709271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>692</v>
@@ -2565,13 +2517,13 @@
         <v>719855</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1437</v>
@@ -2580,13 +2532,13 @@
         <v>1429126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2606,13 @@
         <v>814918</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>1036</v>
@@ -2669,13 +2621,13 @@
         <v>1058996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1839</v>
@@ -2684,13 +2636,13 @@
         <v>1873914</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2657,13 @@
         <v>2460713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>2260</v>
@@ -2720,13 +2672,13 @@
         <v>2319276</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4670</v>
@@ -2735,13 +2687,13 @@
         <v>4779990</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E5B4F5-7F9D-4243-B29F-0178DE5B0E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B35BB-C606-4937-9F72-41CE689DC29E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2894,13 @@
         <v>29314</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -2957,13 +2909,13 @@
         <v>29774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2972,13 +2924,13 @@
         <v>59087</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2945,13 @@
         <v>86451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -3008,13 +2960,13 @@
         <v>82131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -3023,13 +2975,13 @@
         <v>168583</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3049,13 @@
         <v>126463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -3112,13 +3064,13 @@
         <v>175956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -3127,13 +3079,13 @@
         <v>302419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3100,13 @@
         <v>458728</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -3163,13 +3115,13 @@
         <v>409189</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>815</v>
@@ -3178,13 +3130,13 @@
         <v>867917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3204,13 @@
         <v>241165</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>281</v>
@@ -3267,13 +3219,13 @@
         <v>311245</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>508</v>
@@ -3285,10 +3237,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3255,13 @@
         <v>776782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -3318,13 +3270,13 @@
         <v>720939</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1368</v>
@@ -3336,10 +3288,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3359,13 @@
         <v>200655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3422,13 +3374,13 @@
         <v>227518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -3437,13 +3389,13 @@
         <v>428172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3410,13 @@
         <v>556968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -3473,13 +3425,13 @@
         <v>549656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1005</v>
@@ -3488,13 +3440,13 @@
         <v>1106625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3502,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3514,13 @@
         <v>247001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>316</v>
@@ -3577,13 +3529,13 @@
         <v>334364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -3595,10 +3547,10 @@
         <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3565,13 @@
         <v>700738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>686</v>
@@ -3628,13 +3580,13 @@
         <v>716573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>1359</v>
@@ -3643,13 +3595,13 @@
         <v>1417311</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3669,13 @@
         <v>844597</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>996</v>
@@ -3732,13 +3684,13 @@
         <v>1078857</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -3747,13 +3699,13 @@
         <v>1923453</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3720,13 @@
         <v>2579669</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2301</v>
@@ -3783,13 +3735,13 @@
         <v>2478488</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4711</v>
@@ -3798,13 +3750,13 @@
         <v>5058157</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0F865B-CB8D-464F-986B-1C941B21B70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4567F44-BF35-4EC6-A74F-64B185EFBE8F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +3957,13 @@
         <v>28173</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -4020,13 +3972,13 @@
         <v>36782</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4035,13 +3987,13 @@
         <v>64955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4008,13 @@
         <v>88373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -4071,13 +4023,13 @@
         <v>76578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>161</v>
@@ -4086,13 +4038,13 @@
         <v>164951</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4112,13 @@
         <v>164427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4175,13 +4127,13 @@
         <v>195481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>351</v>
@@ -4190,13 +4142,13 @@
         <v>359908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4163,13 @@
         <v>393827</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
@@ -4226,13 +4178,13 @@
         <v>363998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -4241,10 +4193,10 @@
         <v>757825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>261</v>
@@ -4348,10 +4300,10 @@
         <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4318,13 @@
         <v>733501</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -4381,13 +4333,13 @@
         <v>670364</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1312</v>
@@ -4396,13 +4348,13 @@
         <v>1403865</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4422,13 @@
         <v>236347</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>261</v>
@@ -4485,13 +4437,13 @@
         <v>274348</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -4500,13 +4452,13 @@
         <v>510696</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4473,13 @@
         <v>523205</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>475</v>
@@ -4613,7 +4565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4631,7 +4583,7 @@
         <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>318</v>
@@ -4640,10 +4592,10 @@
         <v>345010</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>300</v>
@@ -4658,10 +4610,10 @@
         <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,10 +4628,10 @@
         <v>669096</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>305</v>
@@ -4697,7 +4649,7 @@
         <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1312</v>
@@ -4706,13 +4658,13 @@
         <v>1367866</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4732,13 @@
         <v>986348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>1166</v>
@@ -4795,13 +4747,13 @@
         <v>1224171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>2087</v>
@@ -4810,13 +4762,13 @@
         <v>2210518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4783,13 @@
         <v>2408002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>2172</v>
@@ -4846,13 +4798,13 @@
         <v>2320371</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>4482</v>
@@ -4861,13 +4813,13 @@
         <v>4728374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10803039-EFA0-46A2-A139-D9905F2AB061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F983BB47-3AA5-4D84-A5B4-7FE1DBB1DD4D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5020,13 @@
         <v>26293</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>65</v>
@@ -5083,13 +5035,13 @@
         <v>41618</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -5098,13 +5050,13 @@
         <v>67911</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5071,13 @@
         <v>75689</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5134,13 +5086,13 @@
         <v>88630</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -5149,13 +5101,13 @@
         <v>164319</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5175,13 @@
         <v>115713</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>248</v>
@@ -5238,13 +5190,13 @@
         <v>166785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -5256,10 +5208,10 @@
         <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,16 +5223,16 @@
         <v>492</v>
       </c>
       <c r="D8" s="7">
-        <v>431361</v>
+        <v>431362</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>743</v>
@@ -5289,13 +5241,13 @@
         <v>422514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>1235</v>
@@ -5307,10 +5259,10 @@
         <v>60</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,7 +5274,7 @@
         <v>608</v>
       </c>
       <c r="D9" s="7">
-        <v>547074</v>
+        <v>547075</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5378,13 +5330,13 @@
         <v>239136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>390</v>
@@ -5393,13 +5345,13 @@
         <v>286953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>607</v>
@@ -5408,13 +5360,13 @@
         <v>526089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,28 +5381,28 @@
         <v>793048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>1119</v>
       </c>
       <c r="I11" s="7">
-        <v>768327</v>
+        <v>768326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>1859</v>
@@ -5459,13 +5411,13 @@
         <v>1561374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,7 +5444,7 @@
         <v>1509</v>
       </c>
       <c r="I12" s="7">
-        <v>1055280</v>
+        <v>1055279</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5530,16 +5482,16 @@
         <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>228984</v>
+        <v>228983</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>354</v>
@@ -5548,13 +5500,13 @@
         <v>263770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -5563,13 +5515,13 @@
         <v>492754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5536,13 @@
         <v>498846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -5599,13 +5551,13 @@
         <v>601983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1160</v>
@@ -5614,13 +5566,13 @@
         <v>1100828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5584,7 @@
         <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>727830</v>
+        <v>727829</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5676,7 +5628,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5688,13 +5640,13 @@
         <v>271754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -5703,13 +5655,13 @@
         <v>389180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>796</v>
@@ -5718,13 +5670,13 @@
         <v>660933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5691,13 @@
         <v>679785</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>1013</v>
@@ -5754,13 +5706,13 @@
         <v>742229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>1731</v>
@@ -5769,13 +5721,13 @@
         <v>1422015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5795,13 @@
         <v>881879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>1577</v>
@@ -5858,28 +5810,28 @@
         <v>1148307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>2410</v>
       </c>
       <c r="N19" s="7">
-        <v>2030185</v>
+        <v>2030186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>424</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5846,13 @@
         <v>2478730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>3736</v>
@@ -5909,13 +5861,13 @@
         <v>2623681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>6255</v>
@@ -5924,13 +5876,13 @@
         <v>5102411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5924,7 @@
         <v>8665</v>
       </c>
       <c r="N21" s="7">
-        <v>7132596</v>
+        <v>7132597</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5986,7 +5938,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71B04F62-F6D6-43DD-82F8-4ADE70D88EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A072FA9-E757-40A5-8DD0-D6602FF8A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C58A099C-B027-4400-8068-ADACF6FB62ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10C994E7-41D6-47F7-B272-52ABD2B665FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>18,7%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>34,5%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1195 +107,1207 @@
     <t>81,3%</t>
   </si>
   <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
   </si>
   <si>
     <t>65,5%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BBE419-1699-455A-8A74-D6865C356E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD002D2-BCA7-4C1D-BE26-28E2C47F66A6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2457,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>305</v>
@@ -2466,13 +2478,13 @@
         <v>318757</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -2481,13 +2493,13 @@
         <v>550796</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2514,13 @@
         <v>709271</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>692</v>
@@ -2517,13 +2529,13 @@
         <v>719855</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1437</v>
@@ -2532,13 +2544,13 @@
         <v>1429126</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2618,13 @@
         <v>814918</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>1036</v>
@@ -2621,13 +2633,13 @@
         <v>1058996</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1839</v>
@@ -2636,13 +2648,13 @@
         <v>1873914</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,16 +2666,16 @@
         <v>2410</v>
       </c>
       <c r="D20" s="7">
-        <v>2460713</v>
+        <v>2460714</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H20" s="7">
         <v>2260</v>
@@ -2705,7 +2717,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275631</v>
+        <v>3275632</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2770,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B35BB-C606-4937-9F72-41CE689DC29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96D619E-6C05-4F1B-A095-756990093B2C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2909,13 +2921,13 @@
         <v>29774</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2924,13 +2936,13 @@
         <v>59087</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2957,13 @@
         <v>86451</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -2960,13 +2972,13 @@
         <v>82131</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>164</v>
@@ -2975,13 +2987,13 @@
         <v>168583</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3061,13 @@
         <v>126463</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -3064,13 +3076,13 @@
         <v>175956</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -3079,13 +3091,13 @@
         <v>302419</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3112,13 @@
         <v>458728</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -3115,13 +3127,13 @@
         <v>409189</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>815</v>
@@ -3130,13 +3142,13 @@
         <v>867917</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3216,13 @@
         <v>241165</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>281</v>
@@ -3219,13 +3231,13 @@
         <v>311245</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>508</v>
@@ -3237,10 +3249,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3267,13 @@
         <v>776782</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -3270,13 +3282,13 @@
         <v>720939</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1368</v>
@@ -3288,10 +3300,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3371,13 @@
         <v>200655</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3374,13 +3386,13 @@
         <v>227518</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -3389,13 +3401,13 @@
         <v>428172</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3422,13 @@
         <v>556968</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -3425,13 +3437,13 @@
         <v>549656</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>1005</v>
@@ -3440,13 +3452,13 @@
         <v>1106625</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3526,13 @@
         <v>247001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>316</v>
@@ -3529,13 +3541,13 @@
         <v>334364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -3544,13 +3556,13 @@
         <v>581365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3577,13 @@
         <v>700738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>686</v>
@@ -3580,13 +3592,13 @@
         <v>716573</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1359</v>
@@ -3595,13 +3607,13 @@
         <v>1417311</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3681,13 @@
         <v>844597</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>996</v>
@@ -3684,13 +3696,13 @@
         <v>1078857</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -3699,13 +3711,13 @@
         <v>1923453</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3732,13 @@
         <v>2579669</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2301</v>
@@ -3735,13 +3747,13 @@
         <v>2478488</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4711</v>
@@ -3750,13 +3762,13 @@
         <v>5058157</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4567F44-BF35-4EC6-A74F-64B185EFBE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BB6AA-18FE-4884-9E1C-41C77871425D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3969,13 @@
         <v>28173</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -3972,13 +3984,13 @@
         <v>36782</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -3987,13 +3999,13 @@
         <v>64955</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4020,13 @@
         <v>88373</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -4023,13 +4035,13 @@
         <v>76578</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>161</v>
@@ -4038,13 +4050,13 @@
         <v>164951</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4124,13 @@
         <v>164427</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>196</v>
@@ -4127,13 +4139,13 @@
         <v>195481</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>351</v>
@@ -4142,13 +4154,13 @@
         <v>359908</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4175,13 @@
         <v>393827</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
@@ -4178,13 +4190,13 @@
         <v>363998</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -4193,10 +4205,10 @@
         <v>757825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>261</v>
@@ -4300,10 +4312,10 @@
         <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>733501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -4333,13 +4345,13 @@
         <v>670364</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1312</v>
@@ -4348,13 +4360,13 @@
         <v>1403865</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4434,13 @@
         <v>236347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>261</v>
@@ -4437,13 +4449,13 @@
         <v>274348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -4452,13 +4464,13 @@
         <v>510696</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4485,13 @@
         <v>523205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>475</v>
@@ -4488,13 +4500,13 @@
         <v>510663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
@@ -4503,7 +4515,7 @@
         <v>1033867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>294</v>
@@ -4595,7 +4607,7 @@
         <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>300</v>
@@ -4610,10 +4622,10 @@
         <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4640,13 @@
         <v>669096</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>641</v>
@@ -4643,13 +4655,13 @@
         <v>698769</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>1312</v>
@@ -4658,13 +4670,13 @@
         <v>1367866</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4744,13 @@
         <v>986348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>1166</v>
@@ -4747,13 +4759,13 @@
         <v>1224171</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>2087</v>
@@ -4762,13 +4774,13 @@
         <v>2210518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4795,13 @@
         <v>2408002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>2172</v>
@@ -4798,13 +4810,13 @@
         <v>2320371</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>4482</v>
@@ -4813,13 +4825,13 @@
         <v>4728374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F983BB47-3AA5-4D84-A5B4-7FE1DBB1DD4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18324C02-89F5-4745-8113-36D066DB2CA6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,13 +5032,13 @@
         <v>26293</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>65</v>
@@ -5035,13 +5047,13 @@
         <v>41618</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -5050,13 +5062,13 @@
         <v>67911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5083,13 @@
         <v>75689</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5086,13 +5098,13 @@
         <v>88630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>270</v>
@@ -5101,13 +5113,13 @@
         <v>164319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5187,13 @@
         <v>115713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>248</v>
@@ -5190,13 +5202,13 @@
         <v>166785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -5208,10 +5220,10 @@
         <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,10 +5241,10 @@
         <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>743</v>
@@ -5241,13 +5253,13 @@
         <v>422514</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>1235</v>
@@ -5259,10 +5271,10 @@
         <v>60</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5342,13 @@
         <v>239136</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>390</v>
@@ -5345,13 +5357,13 @@
         <v>286953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>607</v>
@@ -5360,13 +5372,13 @@
         <v>526089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5393,13 @@
         <v>793048</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>1119</v>
@@ -5396,13 +5408,13 @@
         <v>768326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>1859</v>
@@ -5411,13 +5423,13 @@
         <v>1561374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5497,13 @@
         <v>228983</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>354</v>
@@ -5500,13 +5512,13 @@
         <v>263770</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -5515,13 +5527,13 @@
         <v>492754</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5548,13 @@
         <v>498846</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -5551,13 +5563,13 @@
         <v>601983</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1160</v>
@@ -5566,13 +5578,13 @@
         <v>1100828</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5652,13 @@
         <v>271754</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -5655,13 +5667,13 @@
         <v>389180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>796</v>
@@ -5670,13 +5682,13 @@
         <v>660933</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,10 +5703,10 @@
         <v>679785</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>401</v>
@@ -5706,7 +5718,7 @@
         <v>742229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>402</v>
@@ -5816,7 +5828,7 @@
         <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>2410</v>
@@ -5825,13 +5837,13 @@
         <v>2030186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5858,13 @@
         <v>2478730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>3736</v>
@@ -5861,10 +5873,10 @@
         <v>2623681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>79</v>
@@ -5876,13 +5888,13 @@
         <v>5102411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A072FA9-E757-40A5-8DD0-D6602FF8A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4CB0173-B662-4589-AA9E-19FEC2B1BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10C994E7-41D6-47F7-B272-52ABD2B665FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6E1120A-6D80-4B12-A16B-F6E3B9CBADF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>34,5%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,3%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>65,5%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1174 +140,1210 @@
     <t>23,52%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>73,23%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD002D2-BCA7-4C1D-BE26-28E2C47F66A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E0111E-DD34-4E3B-9359-8351AF4549D1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2344,7 +2380,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2395,13 @@
         <v>492372</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -2374,13 +2410,13 @@
         <v>461490</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>940</v>
@@ -2389,13 +2425,13 @@
         <v>953862</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,7 +2487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2463,13 +2499,13 @@
         <v>232039</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>305</v>
@@ -2478,13 +2514,13 @@
         <v>318757</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -2493,13 +2529,13 @@
         <v>550796</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2550,13 @@
         <v>709271</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>692</v>
@@ -2529,13 +2565,13 @@
         <v>719855</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>1437</v>
@@ -2544,13 +2580,13 @@
         <v>1429126</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2654,13 @@
         <v>814918</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>1036</v>
@@ -2633,13 +2669,13 @@
         <v>1058996</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1839</v>
@@ -2648,13 +2684,13 @@
         <v>1873914</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,16 +2702,16 @@
         <v>2410</v>
       </c>
       <c r="D20" s="7">
-        <v>2460714</v>
+        <v>2460713</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2260</v>
@@ -2684,13 +2720,13 @@
         <v>2319276</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4670</v>
@@ -2699,13 +2735,13 @@
         <v>4779990</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,7 +2753,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275632</v>
+        <v>3275631</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2761,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96D619E-6C05-4F1B-A095-756990093B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB83BE6F-18FB-4D79-90E5-976CA7769783}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2799,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,13 +2942,13 @@
         <v>29314</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -2921,13 +2957,13 @@
         <v>29774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -2936,13 +2972,13 @@
         <v>59087</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2993,13 @@
         <v>86451</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -2972,7 +3008,7 @@
         <v>82131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>136</v>
@@ -3082,7 +3118,7 @@
         <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -3091,13 +3127,13 @@
         <v>302419</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3148,13 @@
         <v>458728</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>386</v>
@@ -3127,13 +3163,13 @@
         <v>409189</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>815</v>
@@ -3142,13 +3178,13 @@
         <v>867917</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3252,13 @@
         <v>241165</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>281</v>
@@ -3231,13 +3267,13 @@
         <v>311245</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>508</v>
@@ -3249,10 +3285,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3303,13 @@
         <v>776782</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>659</v>
@@ -3282,13 +3318,13 @@
         <v>720939</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1368</v>
@@ -3300,10 +3336,10 @@
         <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3407,13 @@
         <v>200655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3386,13 +3422,13 @@
         <v>227518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>389</v>
@@ -3401,13 +3437,13 @@
         <v>428172</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3458,13 @@
         <v>556968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>498</v>
@@ -3437,13 +3473,13 @@
         <v>549656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1005</v>
@@ -3452,13 +3488,13 @@
         <v>1106625</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3562,13 @@
         <v>247001</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>316</v>
@@ -3541,13 +3577,13 @@
         <v>334364</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>553</v>
@@ -3556,13 +3592,13 @@
         <v>581365</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3613,13 @@
         <v>700738</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>686</v>
@@ -3824,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681BB6AA-18FE-4884-9E1C-41C77871425D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4829C-F815-4A81-9300-064DEA988DE1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4437,10 +4473,10 @@
         <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>261</v>
@@ -4449,13 +4485,13 @@
         <v>274348</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -4464,7 +4500,7 @@
         <v>510696</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>286</v>
@@ -4491,7 +4527,7 @@
         <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>475</v>
@@ -4500,13 +4536,13 @@
         <v>510663</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
@@ -4515,7 +4551,7 @@
         <v>1033867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>294</v>
@@ -4577,7 +4613,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4595,7 +4631,7 @@
         <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>318</v>
@@ -4604,10 +4640,10 @@
         <v>345010</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>300</v>
@@ -4643,10 +4679,10 @@
         <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>641</v>
@@ -4655,13 +4691,13 @@
         <v>698769</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>1312</v>
@@ -4765,7 +4801,7 @@
         <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>2087</v>
@@ -4774,10 +4810,10 @@
         <v>2210518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>319</v>
@@ -4813,10 +4849,10 @@
         <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>4482</v>
@@ -4825,13 +4861,13 @@
         <v>4728374</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18324C02-89F5-4745-8113-36D066DB2CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD264CE5-2F31-4690-882D-7738F525627B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5193,7 +5229,7 @@
         <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>248</v>
@@ -5202,13 +5238,13 @@
         <v>166785</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -5220,10 +5256,10 @@
         <v>51</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,16 +5271,16 @@
         <v>492</v>
       </c>
       <c r="D8" s="7">
-        <v>431362</v>
+        <v>431361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>743</v>
@@ -5253,13 +5289,13 @@
         <v>422514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>1235</v>
@@ -5271,10 +5307,10 @@
         <v>60</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,7 +5322,7 @@
         <v>608</v>
       </c>
       <c r="D9" s="7">
-        <v>547075</v>
+        <v>547074</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5342,13 +5378,13 @@
         <v>239136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>390</v>
@@ -5357,13 +5393,13 @@
         <v>286953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>607</v>
@@ -5372,13 +5408,13 @@
         <v>526089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,28 +5429,28 @@
         <v>793048</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>1119</v>
       </c>
       <c r="I11" s="7">
-        <v>768326</v>
+        <v>768327</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>1859</v>
@@ -5423,13 +5459,13 @@
         <v>1561374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,7 +5492,7 @@
         <v>1509</v>
       </c>
       <c r="I12" s="7">
-        <v>1055279</v>
+        <v>1055280</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5494,16 +5530,16 @@
         <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>228983</v>
+        <v>228984</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>354</v>
@@ -5512,13 +5548,13 @@
         <v>263770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -5527,13 +5563,13 @@
         <v>492754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5584,13 @@
         <v>498846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>684</v>
@@ -5563,13 +5599,13 @@
         <v>601983</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>1160</v>
@@ -5578,13 +5614,13 @@
         <v>1100828</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,7 +5632,7 @@
         <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>727829</v>
+        <v>727830</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5640,7 +5676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5652,13 +5688,13 @@
         <v>271754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>520</v>
@@ -5667,13 +5703,13 @@
         <v>389180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>796</v>
@@ -5682,13 +5718,13 @@
         <v>660933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5739,13 @@
         <v>679785</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1013</v>
@@ -5718,13 +5754,13 @@
         <v>742229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>1731</v>
@@ -5733,13 +5769,13 @@
         <v>1422015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5843,13 @@
         <v>881879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>1577</v>
@@ -5822,28 +5858,28 @@
         <v>1148307</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>2410</v>
       </c>
       <c r="N19" s="7">
-        <v>2030186</v>
+        <v>2030185</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5894,13 @@
         <v>2478730</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>3736</v>
@@ -5873,13 +5909,13 @@
         <v>2623681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>6255</v>
@@ -5888,13 +5924,13 @@
         <v>5102411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +5972,7 @@
         <v>8665</v>
       </c>
       <c r="N21" s="7">
-        <v>7132597</v>
+        <v>7132596</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5950,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4CB0173-B662-4589-AA9E-19FEC2B1BA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1730A4EC-7386-4BEC-8915-7391BB2C8D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6E1120A-6D80-4B12-A16B-F6E3B9CBADF7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5F782E94-72B1-4D45-8E11-743448B69228}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Población según si en los últimos 6 meses han ido al dentista en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,522 +68,426 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>67,43%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 6 meses han ido al dentista en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
     <t>69,89%</t>
   </si>
   <si>
@@ -596,9 +500,6 @@
     <t>67,56%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
     <t>72,1%</t>
   </si>
   <si>
@@ -719,112 +620,46 @@
     <t>Población según si en los últimos 6 meses han ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>28,26%</t>
@@ -1028,322 +863,238 @@
     <t>Población según si en los últimos 6 meses han ido al dentista en 2023 (Tasa respuesta: 99,11%)</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>68,08%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
 </sst>
 </file>
@@ -1755,8 +1506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E0111E-DD34-4E3B-9359-8351AF4549D1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC86285D-24A5-4411-AAEF-58A2ADA1B85F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1873,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="D4" s="7">
-        <v>21570</v>
+        <v>157655</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1888,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="I4" s="7">
-        <v>38901</v>
+        <v>213595</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1903,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>63</v>
+        <v>376</v>
       </c>
       <c r="N4" s="7">
-        <v>60471</v>
+        <v>371250</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>525</v>
       </c>
       <c r="D5" s="7">
-        <v>93788</v>
+        <v>536357</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1939,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>85</v>
+        <v>477</v>
       </c>
       <c r="I5" s="7">
-        <v>73854</v>
+        <v>473831</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1954,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>170</v>
+        <v>1002</v>
       </c>
       <c r="N5" s="7">
-        <v>167642</v>
+        <v>1010188</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687426</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2005,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381438</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="D7" s="7">
-        <v>136085</v>
+        <v>239087</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2043,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7">
-        <v>174694</v>
+        <v>304293</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2058,10 +1809,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>313</v>
+        <v>513</v>
       </c>
       <c r="N7" s="7">
-        <v>310779</v>
+        <v>543380</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2079,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>440</v>
+        <v>671</v>
       </c>
       <c r="D8" s="7">
-        <v>442569</v>
+        <v>722713</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2094,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>392</v>
+        <v>620</v>
       </c>
       <c r="I8" s="7">
-        <v>399977</v>
+        <v>664100</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2109,10 +1860,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>832</v>
+        <v>1291</v>
       </c>
       <c r="N8" s="7">
-        <v>842546</v>
+        <v>1386813</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2145,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574671</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2160,10 +1911,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153325</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2183,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7">
-        <v>239087</v>
+        <v>186137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2198,10 +1949,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="I10" s="7">
-        <v>304293</v>
+        <v>222351</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2213,10 +1964,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>513</v>
+        <v>397</v>
       </c>
       <c r="N10" s="7">
-        <v>543380</v>
+        <v>408488</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2234,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>671</v>
+        <v>469</v>
       </c>
       <c r="D11" s="7">
-        <v>722713</v>
+        <v>492372</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2249,10 +2000,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>620</v>
+        <v>471</v>
       </c>
       <c r="I11" s="7">
-        <v>664100</v>
+        <v>461490</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2264,10 +2015,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1291</v>
+        <v>940</v>
       </c>
       <c r="N11" s="7">
-        <v>1386813</v>
+        <v>953862</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2300,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>186137</v>
+        <v>232039</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2353,34 +2104,34 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="I13" s="7">
-        <v>222351</v>
+        <v>318757</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>553</v>
+      </c>
+      <c r="N13" s="7">
+        <v>550796</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>397</v>
-      </c>
-      <c r="N13" s="7">
-        <v>408488</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>469</v>
+        <v>745</v>
       </c>
       <c r="D14" s="7">
-        <v>492372</v>
+        <v>709271</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2404,10 +2155,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>471</v>
+        <v>692</v>
       </c>
       <c r="I14" s="7">
-        <v>461490</v>
+        <v>719855</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2416,19 +2167,19 @@
         <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1437</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1429126</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>940</v>
-      </c>
-      <c r="N14" s="7">
-        <v>953862</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941310</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2455,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1979922</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2487,46 +2238,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>803</v>
       </c>
       <c r="D16" s="7">
-        <v>232039</v>
+        <v>814918</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1036</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1058996</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>305</v>
-      </c>
-      <c r="I16" s="7">
-        <v>318757</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>1839</v>
       </c>
       <c r="N16" s="7">
-        <v>550796</v>
+        <v>1873914</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -2544,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>745</v>
+        <v>2410</v>
       </c>
       <c r="D17" s="7">
-        <v>709271</v>
+        <v>2460713</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -2559,10 +2310,10 @@
         <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>692</v>
+        <v>2260</v>
       </c>
       <c r="I17" s="7">
-        <v>719855</v>
+        <v>2319276</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>98</v>
@@ -2571,22 +2322,22 @@
         <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>1437</v>
+        <v>4670</v>
       </c>
       <c r="N17" s="7">
-        <v>1429126</v>
+        <v>4779990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941310</v>
+        <v>3275631</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2610,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3378272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2625,10 +2376,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6509</v>
       </c>
       <c r="N18" s="7">
-        <v>1979922</v>
+        <v>6653904</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2641,171 +2392,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>803</v>
-      </c>
-      <c r="D19" s="7">
-        <v>814918</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1036</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1058996</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1839</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1873914</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2410</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2460713</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2260</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2319276</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4670</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4779990</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275631</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3378272</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6653904</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2818,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB83BE6F-18FB-4D79-90E5-976CA7769783}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F8BCE-1A21-4828-B751-BE48FC16B6C4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2835,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="D4" s="7">
-        <v>29314</v>
+        <v>155776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I4" s="7">
-        <v>29774</v>
+        <v>205730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>343</v>
       </c>
       <c r="N4" s="7">
-        <v>59087</v>
+        <v>361506</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,49 +2582,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>521</v>
       </c>
       <c r="D5" s="7">
-        <v>86451</v>
+        <v>545180</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>458</v>
       </c>
       <c r="I5" s="7">
-        <v>82131</v>
+        <v>491320</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>164</v>
+        <v>979</v>
       </c>
       <c r="N5" s="7">
-        <v>168583</v>
+        <v>1036500</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>700956</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3053,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3068,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1322</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1398006</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3091,49 +2686,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>121</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>126463</v>
+        <v>241165</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="I7" s="7">
-        <v>175956</v>
+        <v>311245</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>286</v>
+        <v>508</v>
       </c>
       <c r="N7" s="7">
-        <v>302419</v>
+        <v>552410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>429</v>
+        <v>709</v>
       </c>
       <c r="D8" s="7">
-        <v>458728</v>
+        <v>776782</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>386</v>
+        <v>659</v>
       </c>
       <c r="I8" s="7">
-        <v>409189</v>
+        <v>720939</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>815</v>
+        <v>1368</v>
       </c>
       <c r="N8" s="7">
-        <v>867917</v>
+        <v>1497721</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585191</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3223,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1101</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1170336</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3246,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="D10" s="7">
-        <v>241165</v>
+        <v>200655</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>311245</v>
+        <v>227518</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>508</v>
+        <v>389</v>
       </c>
       <c r="N10" s="7">
-        <v>552410</v>
+        <v>428172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>709</v>
+        <v>507</v>
       </c>
       <c r="D11" s="7">
-        <v>776782</v>
+        <v>556968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>659</v>
+        <v>498</v>
       </c>
       <c r="I11" s="7">
-        <v>720939</v>
+        <v>549656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>1368</v>
+        <v>1005</v>
       </c>
       <c r="N11" s="7">
-        <v>1497721</v>
+        <v>1106625</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3363,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,49 +2996,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="D13" s="7">
-        <v>200655</v>
+        <v>247001</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="I13" s="7">
-        <v>227518</v>
+        <v>334364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>389</v>
+        <v>553</v>
       </c>
       <c r="N13" s="7">
-        <v>428172</v>
+        <v>581365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3047,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>507</v>
+        <v>673</v>
       </c>
       <c r="D14" s="7">
-        <v>556968</v>
+        <v>700738</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>498</v>
+        <v>686</v>
       </c>
       <c r="I14" s="7">
-        <v>549656</v>
+        <v>716573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1005</v>
+        <v>1359</v>
       </c>
       <c r="N14" s="7">
-        <v>1106625</v>
+        <v>1417311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3518,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1050937</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3533,10 +3128,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1998676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3550,55 +3145,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>237</v>
+        <v>797</v>
       </c>
       <c r="D16" s="7">
-        <v>247001</v>
+        <v>844597</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>316</v>
+        <v>996</v>
       </c>
       <c r="I16" s="7">
-        <v>334364</v>
+        <v>1078857</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>1793</v>
       </c>
       <c r="N16" s="7">
-        <v>581365</v>
+        <v>1923453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,49 +3202,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>673</v>
+        <v>2410</v>
       </c>
       <c r="D17" s="7">
-        <v>700738</v>
+        <v>2579669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>686</v>
+        <v>2301</v>
       </c>
       <c r="I17" s="7">
-        <v>716573</v>
+        <v>2478488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>1359</v>
+        <v>4711</v>
       </c>
       <c r="N17" s="7">
-        <v>1417311</v>
+        <v>5058157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3207</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3424266</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3673,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1050937</v>
+        <v>3557345</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3688,10 +3283,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998676</v>
+        <v>6981610</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3704,171 +3299,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>797</v>
-      </c>
-      <c r="D19" s="7">
-        <v>844597</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>996</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1078857</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1793</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1923453</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2410</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2579669</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2301</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2478488</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4711</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5058157</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3207</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3424266</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3557345</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981610</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3881,8 +3320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD4829C-F815-4A81-9300-064DEA988DE1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C278FD-EFD6-4087-B341-0BD32D26CF3F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3898,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D4" s="7">
-        <v>28173</v>
+        <v>192600</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="I4" s="7">
-        <v>36782</v>
+        <v>232263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>67</v>
+        <v>418</v>
       </c>
       <c r="N4" s="7">
-        <v>64955</v>
+        <v>424863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>469</v>
       </c>
       <c r="D5" s="7">
-        <v>88373</v>
+        <v>482200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="I5" s="7">
-        <v>76578</v>
+        <v>440576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>161</v>
+        <v>900</v>
       </c>
       <c r="N5" s="7">
-        <v>164951</v>
+        <v>922776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +3555,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4131,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4154,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>164427</v>
+        <v>288930</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="I7" s="7">
-        <v>195481</v>
+        <v>372549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>351</v>
+        <v>616</v>
       </c>
       <c r="N7" s="7">
-        <v>359908</v>
+        <v>661479</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,49 +3644,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>384</v>
+        <v>687</v>
       </c>
       <c r="D8" s="7">
-        <v>393827</v>
+        <v>733501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>355</v>
+        <v>625</v>
       </c>
       <c r="I8" s="7">
-        <v>363998</v>
+        <v>670364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>739</v>
+        <v>1312</v>
       </c>
       <c r="N8" s="7">
-        <v>757825</v>
+        <v>1403865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4271,10 +3710,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4286,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4309,49 +3748,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="D10" s="7">
-        <v>288930</v>
+        <v>236347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="I10" s="7">
-        <v>372549</v>
+        <v>274348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>616</v>
+        <v>474</v>
       </c>
       <c r="N10" s="7">
-        <v>661479</v>
+        <v>510696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,49 +3799,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>687</v>
+        <v>483</v>
       </c>
       <c r="D11" s="7">
-        <v>733501</v>
+        <v>523205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="I11" s="7">
-        <v>670364</v>
+        <v>510663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1312</v>
+        <v>958</v>
       </c>
       <c r="N11" s="7">
-        <v>1403865</v>
+        <v>1033867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +3865,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4441,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4464,49 +3903,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="D13" s="7">
-        <v>236347</v>
+        <v>268471</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="I13" s="7">
-        <v>274348</v>
+        <v>345010</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
-        <v>474</v>
+        <v>579</v>
       </c>
       <c r="N13" s="7">
-        <v>510696</v>
+        <v>613480</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,49 +3954,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>483</v>
+        <v>671</v>
       </c>
       <c r="D14" s="7">
-        <v>523205</v>
+        <v>669096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>475</v>
+        <v>641</v>
       </c>
       <c r="I14" s="7">
-        <v>510663</v>
+        <v>698769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>958</v>
+        <v>1312</v>
       </c>
       <c r="N14" s="7">
-        <v>1033867</v>
+        <v>1367866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,10 +4005,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4596,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4613,55 +4052,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>921</v>
+      </c>
+      <c r="D16" s="7">
+        <v>986348</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1166</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1224171</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="7">
-        <v>268471</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" s="7">
-        <v>318</v>
-      </c>
-      <c r="I16" s="7">
-        <v>345010</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>2087</v>
       </c>
       <c r="N16" s="7">
-        <v>613480</v>
+        <v>2210518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>671</v>
+        <v>2310</v>
       </c>
       <c r="D17" s="7">
-        <v>669096</v>
+        <v>2408002</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>641</v>
+        <v>2172</v>
       </c>
       <c r="I17" s="7">
-        <v>698769</v>
+        <v>2320371</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>1312</v>
+        <v>4482</v>
       </c>
       <c r="N17" s="7">
-        <v>1367866</v>
+        <v>4728374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4751,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4767,171 +4206,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>921</v>
-      </c>
-      <c r="D19" s="7">
-        <v>986348</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1166</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1224171</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2087</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2210518</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2310</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2408002</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2172</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2320371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4482</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4728374</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4944,8 +4227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD264CE5-2F31-4690-882D-7738F525627B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F46190D-EEFB-433C-A44F-8A9E9D218D60}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4961,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7">
-        <v>26293</v>
+        <v>143302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="I4" s="7">
-        <v>41618</v>
+        <v>197393</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>90</v>
+        <v>454</v>
       </c>
       <c r="N4" s="7">
-        <v>67911</v>
+        <v>340695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>585</v>
       </c>
       <c r="D5" s="7">
-        <v>75689</v>
+        <v>489520</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>177</v>
+        <v>920</v>
       </c>
       <c r="I5" s="7">
-        <v>88630</v>
+        <v>474175</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>270</v>
+        <v>1505</v>
       </c>
       <c r="N5" s="7">
-        <v>164319</v>
+        <v>963695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>726</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>632822</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5179,10 +4462,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1233</v>
       </c>
       <c r="I6" s="7">
-        <v>130248</v>
+        <v>671568</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5194,10 +4477,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1959</v>
       </c>
       <c r="N6" s="7">
-        <v>232230</v>
+        <v>1304390</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5217,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="D7" s="7">
-        <v>115713</v>
+        <v>229713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="H7" s="7">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="I7" s="7">
-        <v>166785</v>
+        <v>263841</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>364</v>
+        <v>607</v>
       </c>
       <c r="N7" s="7">
-        <v>282498</v>
+        <v>493554</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>492</v>
+        <v>740</v>
       </c>
       <c r="D8" s="7">
-        <v>431361</v>
+        <v>956583</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>743</v>
+        <v>1119</v>
       </c>
       <c r="I8" s="7">
-        <v>422514</v>
+        <v>690576</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>1235</v>
+        <v>1859</v>
       </c>
       <c r="N8" s="7">
-        <v>853875</v>
+        <v>1647159</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>957</v>
       </c>
       <c r="D9" s="7">
-        <v>547074</v>
+        <v>1186296</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5334,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>991</v>
+        <v>1509</v>
       </c>
       <c r="I9" s="7">
-        <v>589299</v>
+        <v>954417</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5349,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1599</v>
+        <v>2466</v>
       </c>
       <c r="N9" s="7">
-        <v>1136373</v>
+        <v>2140713</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5372,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>239136</v>
+        <v>224665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="I10" s="7">
-        <v>286953</v>
+        <v>268809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="N10" s="7">
-        <v>526089</v>
+        <v>493474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>740</v>
+        <v>476</v>
       </c>
       <c r="D11" s="7">
-        <v>793048</v>
+        <v>479139</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
-        <v>1119</v>
+        <v>684</v>
       </c>
       <c r="I11" s="7">
-        <v>768327</v>
+        <v>657217</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>1859</v>
+        <v>1160</v>
       </c>
       <c r="N11" s="7">
-        <v>1561374</v>
+        <v>1136356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>957</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1032184</v>
+        <v>703804</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1509</v>
+        <v>1038</v>
       </c>
       <c r="I12" s="7">
-        <v>1055280</v>
+        <v>926026</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5504,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2466</v>
+        <v>1713</v>
       </c>
       <c r="N12" s="7">
-        <v>2087463</v>
+        <v>1629830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5527,49 +4810,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="D13" s="7">
-        <v>228984</v>
+        <v>265032</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>354</v>
+        <v>520</v>
       </c>
       <c r="I13" s="7">
-        <v>263770</v>
+        <v>354190</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
-        <v>553</v>
+        <v>796</v>
       </c>
       <c r="N13" s="7">
-        <v>492754</v>
+        <v>619223</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>476</v>
+        <v>718</v>
       </c>
       <c r="D14" s="7">
-        <v>498846</v>
+        <v>648578</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="H14" s="7">
-        <v>684</v>
+        <v>1013</v>
       </c>
       <c r="I14" s="7">
-        <v>601983</v>
+        <v>723613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>1160</v>
+        <v>1731</v>
       </c>
       <c r="N14" s="7">
-        <v>1100828</v>
+        <v>1372190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>727830</v>
+        <v>913610</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +4927,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1038</v>
+        <v>1533</v>
       </c>
       <c r="I15" s="7">
-        <v>865753</v>
+        <v>1077803</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5659,10 +4942,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1713</v>
+        <v>2527</v>
       </c>
       <c r="N15" s="7">
-        <v>1593582</v>
+        <v>1991413</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5676,55 +4959,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>276</v>
+        <v>833</v>
       </c>
       <c r="D16" s="7">
-        <v>271754</v>
+        <v>862713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
-        <v>520</v>
+        <v>1577</v>
       </c>
       <c r="I16" s="7">
-        <v>389180</v>
+        <v>1084234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
-        <v>796</v>
+        <v>2410</v>
       </c>
       <c r="N16" s="7">
-        <v>660933</v>
+        <v>1946946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>718</v>
+        <v>2519</v>
       </c>
       <c r="D17" s="7">
-        <v>679785</v>
+        <v>2573819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>1013</v>
+        <v>3736</v>
       </c>
       <c r="I17" s="7">
-        <v>742229</v>
+        <v>2545580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
-        <v>1731</v>
+        <v>6255</v>
       </c>
       <c r="N17" s="7">
-        <v>1422015</v>
+        <v>5119400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3352</v>
       </c>
       <c r="D18" s="7">
-        <v>951539</v>
+        <v>3436532</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5799,10 +5082,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1533</v>
+        <v>5313</v>
       </c>
       <c r="I18" s="7">
-        <v>1131409</v>
+        <v>3629814</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5814,10 +5097,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2527</v>
+        <v>8665</v>
       </c>
       <c r="N18" s="7">
-        <v>2082948</v>
+        <v>7066346</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5830,171 +5113,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>833</v>
-      </c>
-      <c r="D19" s="7">
-        <v>881879</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1577</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1148307</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2410</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2030185</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2519</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2478730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3736</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2623681</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6255</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5102411</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3352</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3360609</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5313</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3771988</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7132596</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
